--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.173174</v>
+        <v>0.3643233333333333</v>
       </c>
       <c r="N2">
-        <v>0.519522</v>
+        <v>1.09297</v>
       </c>
       <c r="O2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="P2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="Q2">
-        <v>0.08271021138666669</v>
+        <v>0.1740056816444445</v>
       </c>
       <c r="R2">
-        <v>0.7443919024800001</v>
+        <v>1.5660511348</v>
       </c>
       <c r="S2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="T2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +623,10 @@
         <v>2.642808</v>
       </c>
       <c r="O3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="P3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="Q3">
         <v>0.4207467794133334</v>
@@ -632,10 +635,10 @@
         <v>3.78672101472</v>
       </c>
       <c r="S3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="T3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.606500333333333</v>
+        <v>2.721212</v>
       </c>
       <c r="N4">
-        <v>7.819501</v>
+        <v>8.163636</v>
       </c>
       <c r="O4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="P4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="Q4">
-        <v>1.244899312537778</v>
+        <v>1.299687134026667</v>
       </c>
       <c r="R4">
-        <v>11.20409381284</v>
+        <v>11.69718420624</v>
       </c>
       <c r="S4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="T4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4776133333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.43284</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.016887</v>
+      </c>
+      <c r="N5">
+        <v>0.050661</v>
+      </c>
+      <c r="O5">
+        <v>0.004239387618906157</v>
+      </c>
+      <c r="P5">
+        <v>0.004239387618906157</v>
+      </c>
+      <c r="Q5">
+        <v>0.008065456360000001</v>
+      </c>
+      <c r="R5">
+        <v>0.07258910724000001</v>
+      </c>
+      <c r="S5">
+        <v>0.004239387618906157</v>
+      </c>
+      <c r="T5">
+        <v>0.004239387618906157</v>
       </c>
     </row>
   </sheetData>
